--- a/0_Report/throughput.xlsx
+++ b/0_Report/throughput.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan Loretan\Desktop\Bachelor\0_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bachelor\Bachelor\0_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Oscillator</t>
   </si>
@@ -60,12 +60,18 @@
   </si>
   <si>
     <t>[Hz]</t>
+  </si>
+  <si>
+    <t>Continuous Conversion Mode</t>
+  </si>
+  <si>
+    <t>Single-cycle Conversion Mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,17 +128,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -148,32 +143,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="H1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -501,19 +553,11 @@
     <col min="10" max="19" width="6.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="H1" s="5" t="s">
+    <row r="1" spans="8:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -525,29 +569,11 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>120</v>
-      </c>
-      <c r="D2">
-        <v>240</v>
-      </c>
-      <c r="E2">
-        <v>480</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
+    <row r="2" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="5"/>
       <c r="J2">
         <v>1</v>
       </c>
@@ -569,39 +595,21 @@
       <c r="P2">
         <v>400</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="S2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>400</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
+    <row r="3" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="7"/>
       <c r="J3">
         <v>1</v>
       </c>
@@ -623,19 +631,19 @@
       <c r="P3">
         <v>400</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="3"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H4" s="4" t="s">
+    <row r="4" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="7"/>
       <c r="J4">
         <v>1</v>
       </c>
@@ -657,37 +665,192 @@
       <c r="P4">
         <v>400</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="L16" s="8"/>
+    <row r="7" spans="8:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8">
+        <v>0.83</v>
+      </c>
+      <c r="K8">
+        <v>2.08</v>
+      </c>
+      <c r="L8">
+        <v>4.17</v>
+      </c>
+      <c r="M8">
+        <v>8.33</v>
+      </c>
+      <c r="N8">
+        <v>12.5</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="8:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>120</v>
+      </c>
+      <c r="R9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="8:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="12" spans="8:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>120</v>
+      </c>
+      <c r="L13">
+        <v>240</v>
+      </c>
+      <c r="M13">
+        <v>480</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="8:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>200</v>
+      </c>
+      <c r="M14">
+        <v>400</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="8:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L17" s="8"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L18" s="8"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L19" s="8"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L20" s="8"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
